--- a/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>Use-case number:</t>
   </si>
@@ -52,11 +52,11 @@
     <t>System response</t>
   </si>
   <si>
-    <t>- Người dùng nhấn vào biểu tượng chuông thông báo.
-- Phản hồi danh sách thông báo lấy từ CSDL.</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấn vào biểu tượng chuông thông báo trên góc phải phần mềm.</t>
+    <t>"- Người dùng nhấn vào biểu tượng chuông thông báo.
+- Hệ thống phản hồi danh sách thông báo lấy từ CSDL."</t>
+  </si>
+  <si>
+    <t>"- Người dùng nhấn vào biểu tượng chuông thông báo trên góc phải phần mềm."</t>
   </si>
   <si>
     <t>Phản hồi danh sách thông báo lấy từ CSDL.</t>
@@ -77,7 +77,7 @@
     <t>Extension points:</t>
   </si>
   <si>
-    <t>Chuông thông báo nằm trên góc phải chương trình.</t>
+    <t>Chuông thông báo nằm trên góc phải phần mềm.</t>
   </si>
   <si>
     <t>Triggers:</t>
@@ -104,22 +104,25 @@
     <t>Người dùng lựa chọn thông báo muốn xóa trong danh sách các thông báo của bản thân.</t>
   </si>
   <si>
-    <t>- Người dùng nhấn vào biểu tượng Xóa bên cạnh thông báo muốn xóa. 
-- Xác nhận thông báo đã được xóa hay chưa.
-- Cập nhập CSDL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người dùng nhấn vào biểu tượng Xóa bên cạnh thông báo muốn xóa. </t>
-  </si>
-  <si>
-    <t>- Xác nhận thông báo đã được xóa hay chưa.
-- Cập nhập CSDL.</t>
+    <t>"- Người dùng nhấn vào biểu tượng Xóa bên cạnh thông báo muốn xóa.
+ - Hệ thống hiển thị thông báo xác nhận xóa.
+- Người dùng xác nhận hoặc từ chối xóa.
+- Hệ thống tự hành cập nhập CSDL."</t>
+  </si>
+  <si>
+    <t>"- Người dùng nhấn vào biểu tượng Xóa bên cạnh thông báo muốn xóa. 
+- Người dùng xác nhận hoặc từ chối xóa."</t>
+  </si>
+  <si>
+    <t>"- Hiển thị thông báo xác nhận xóa.
+- Cập nhập CSDL."</t>
   </si>
   <si>
     <t>Xác nhận xóa thông báo.</t>
   </si>
   <si>
-    <t>Phải đang mở danh sách thông báo lên xem.</t>
+    <t>"- Phải đang mở danh sách thông báo lên xem.
+- Tài khoản phải có ít nhất 1 thông báo."</t>
   </si>
   <si>
     <t>Danh sách thông báo mới không bao gồm cái vừa bị xóa.</t>
@@ -131,21 +134,23 @@
     <t>Người dùng đánh dấu đã xem cho một hoặc nhiều thông báo trong danh sách các thông báo của bản thân.</t>
   </si>
   <si>
-    <t>- Người dùng nhấn trực tiếp vào thông báo muốn xác nhận đã xem.
-- Xác nhận thông báo đã được xem. 
-- Cập nhập vào CSDL.</t>
+    <t>"- Người dùng nhấn trực tiếp vào thông báo muốn xác nhận đã xem.
+- Hệ thống xác nhận thông báo đã được xem vào CSDL."</t>
   </si>
   <si>
     <t>Người dùng nhấn trực tiếp vào thông báo muốn xác nhận đã xem.</t>
   </si>
   <si>
-    <t>- Xác nhận thông báo đã được xem. 
-- Cập nhập vào CSDL.</t>
+    <t>"- Xác nhận thông báo đã được xem vào CSDL."</t>
   </si>
   <si>
     <t>Nhấn trực tiếp vào một thông báo nào đó.</t>
   </si>
   <si>
+    <t>" - Phải đang mở danh sách thông báo lên xem.
+- Tài khoản phải có ít nhất 1 thông báo."</t>
+  </si>
+  <si>
     <t>Thông báo sẽ thay đổi sang chế độ Đã Xem.</t>
   </si>
   <si>
@@ -155,23 +160,21 @@
     <t>Người dùng thay đổi các Cài Đặt liên quan đến thông báo.</t>
   </si>
   <si>
-    <t>- Người dùng vào mục Cài Đặt. 
-- Chọn Cài Đặt thông báo. 
-- Lựa chọn loại thông báo mình muốn.
-- Lưu thay đổi vào CSDL. 
-- Cập nhập lại hiển thị thông báo hiện hành.</t>
-  </si>
-  <si>
-    <t>- Người dùng vào mục Cài Đặt. 
-- Chọn Cài Đặt thông báo. 
-- Lựa chọn loại thông báo mình muốn.</t>
-  </si>
-  <si>
-    <t>- Lưu thay đổi vào CSDL. 
-- Cập nhập lại hiển thị thông báo hiện hành.</t>
-  </si>
-  <si>
-    <t>Nhấn vào biểu tượng Cài Đặt Thông Báo.</t>
+    <t>"- Người dùng vào mục Cài Đặt. 
+- Hệ thống hiển thị danh sách Cài Đặt.
+- Người dùng vào phần Cài Đặt thông báo lựa chọn loại thông báo mình muốn.
+- Hệ thống lưu thay đổi vào CSDL và cập nhập lại hiển thị thông báo hiện hành."</t>
+  </si>
+  <si>
+    <t>"- Người dùng vào mục Cài Đặt. 
+- Tại phần Cài Đặt thông báo lựa chọn điều chỉnh theo mong muốn."</t>
+  </si>
+  <si>
+    <t>"- Hiển thị danh sách Cài Đặt.
+- Lưu thay đổi vào CSDL và cập nhập lại hiển thị thông báo hiện hành."</t>
+  </si>
+  <si>
+    <t>Lựa chọn các Cài Đặt Thông Báo mong muốn.</t>
   </si>
   <si>
     <t>Thông báo sẽ hiển thị theo những gì vừa được thiết lập.</t>
@@ -183,9 +186,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -208,7 +211,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -216,6 +219,66 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,31 +291,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,97 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -378,187 +381,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,26 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -648,6 +631,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -658,6 +650,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -680,24 +687,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,152 +716,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -876,6 +879,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,15 +1149,15 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="59.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="48.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="59.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="60.0092592592593" customWidth="1"/>
+    <col min="5" max="5" width="48.2777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="18" spans="3:5">
@@ -1202,7 +1211,7 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1231,10 +1240,10 @@
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="18" spans="3:5">
       <c r="C12" s="4" t="s">
@@ -1286,15 +1295,15 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="53.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="47.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="48.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="53.537037037037" customWidth="1"/>
+    <col min="4" max="4" width="47.8703703703704" customWidth="1"/>
+    <col min="5" max="5" width="48.6759259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="18" spans="3:5">
@@ -1344,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="108" spans="3:5">
+    <row r="8" ht="90" spans="3:5">
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1377,10 +1386,10 @@
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="18" spans="3:5">
       <c r="C12" s="4" t="s">
@@ -1391,11 +1400,11 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="18" spans="3:5">
+    <row r="13" ht="43" customHeight="1" spans="3:5">
       <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="6"/>
@@ -1432,15 +1441,15 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="44.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="43.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="39.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="43.8240740740741" customWidth="1"/>
+    <col min="5" max="5" width="39.5092592592593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="18" spans="3:5">
@@ -1523,10 +1532,10 @@
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="18" spans="3:5">
       <c r="C12" s="4" t="s">
@@ -1537,21 +1546,21 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="18" spans="3:5">
+    <row r="13" ht="40" customHeight="1" spans="3:5">
       <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="18" spans="3:5">
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1578,15 +1587,15 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="47.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="42.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="46.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="42.0740740740741" customWidth="1"/>
+    <col min="5" max="5" width="46.9259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="18" spans="3:5">
@@ -1603,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1621,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1636,15 +1645,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="126" spans="3:5">
+    <row r="8" ht="108" spans="3:5">
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="18" spans="3:5">
@@ -1679,7 +1688,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -1688,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1697,7 +1706,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3"/>
     </row>

--- a/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204"/>
+    <workbookView windowWidth="23040" windowHeight="9204" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="View Notification" sheetId="15" r:id="rId1"/>
@@ -186,9 +186,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -198,23 +198,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -223,16 +231,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,10 +260,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,8 +291,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,15 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,63 +351,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,25 +381,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,19 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,133 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +616,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,16 +652,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,13 +681,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,148 +716,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,8 +1149,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1160,7 +1160,7 @@
     <col min="5" max="5" width="48.2777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18" spans="3:5">
+    <row r="3" ht="15.6" spans="3:5">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="18" spans="3:5">
+    <row r="4" ht="15.6" spans="3:5">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="18" spans="3:5">
+    <row r="5" ht="15.6" spans="3:5">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="18" spans="3:5">
+    <row r="6" ht="15.6" spans="3:5">
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" ht="15.6" spans="3:5">
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="36" spans="3:5">
+    <row r="8" ht="31.2" spans="3:5">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="3:5">
+    <row r="9" ht="15.6" spans="3:5">
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="18" spans="3:5">
+    <row r="10" ht="15.6" spans="3:5">
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="18" spans="3:5">
+    <row r="11" ht="15.6" spans="3:5">
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="18" spans="3:5">
+    <row r="12" ht="15.6" spans="3:5">
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="18" spans="3:5">
+    <row r="13" ht="15.6" spans="3:5">
       <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="18" spans="3:5">
+    <row r="14" ht="15.6" spans="3:5">
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1296,7 +1296,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="C3" sqref="C3:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1306,7 +1306,7 @@
     <col min="5" max="5" width="48.6759259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18" spans="3:5">
+    <row r="3" ht="15.6" spans="3:5">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="18" spans="3:5">
+    <row r="4" ht="15.6" spans="3:5">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="18" spans="3:5">
+    <row r="5" ht="15.6" spans="3:5">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="18" spans="3:5">
+    <row r="6" ht="15.6" spans="3:5">
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" ht="15.6" spans="3:5">
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="90" spans="3:5">
+    <row r="8" ht="78" spans="3:5">
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="3:5">
+    <row r="9" ht="15.6" spans="3:5">
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="18" spans="3:5">
+    <row r="10" ht="15.6" spans="3:5">
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="18" spans="3:5">
+    <row r="11" ht="15.6" spans="3:5">
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="18" spans="3:5">
+    <row r="12" ht="15.6" spans="3:5">
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="18" spans="3:5">
+    <row r="14" ht="15.6" spans="3:5">
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1442,7 +1442,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1452,7 +1452,7 @@
     <col min="5" max="5" width="39.5092592592593" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18" spans="3:5">
+    <row r="3" ht="15.6" spans="3:5">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="18" spans="3:5">
+    <row r="4" ht="15.6" spans="3:5">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="18" spans="3:5">
+    <row r="5" ht="15.6" spans="3:5">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="18" spans="3:5">
+    <row r="6" ht="15.6" spans="3:5">
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" ht="15.6" spans="3:5">
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="72" spans="3:5">
+    <row r="8" ht="62.4" spans="3:5">
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="3:5">
+    <row r="9" ht="15.6" spans="3:5">
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="18" spans="3:5">
+    <row r="10" ht="15.6" spans="3:5">
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="18" spans="3:5">
+    <row r="11" ht="15.6" spans="3:5">
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="18" spans="3:5">
+    <row r="12" ht="15.6" spans="3:5">
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" ht="18" spans="3:5">
+    <row r="14" ht="15.6" spans="3:5">
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1587,8 +1587,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1598,7 +1598,7 @@
     <col min="5" max="5" width="46.9259259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18" spans="3:5">
+    <row r="3" ht="15.6" spans="3:5">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="18" spans="3:5">
+    <row r="4" ht="15.6" spans="3:5">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="18" spans="3:5">
+    <row r="5" ht="15.6" spans="3:5">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="18" spans="3:5">
+    <row r="6" ht="15.6" spans="3:5">
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" ht="15.6" spans="3:5">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="108" spans="3:5">
+    <row r="8" ht="93.6" spans="3:5">
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="3:5">
+    <row r="9" ht="15.6" spans="3:5">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="18" spans="3:5">
+    <row r="10" ht="15.6" spans="3:5">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="18" spans="3:5">
+    <row r="11" ht="15.6" spans="3:5">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="18" spans="3:5">
+    <row r="12" ht="15.6" spans="3:5">
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="18" spans="3:5">
+    <row r="13" ht="15.6" spans="3:5">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="18" spans="3:5">
+    <row r="14" ht="15.6" spans="3:5">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>

--- a/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="View Notification" sheetId="15" r:id="rId1"/>
@@ -220,6 +220,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -233,8 +255,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,11 +303,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,39 +324,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,37 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -349,7 +349,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,13 +369,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -385,37 +385,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,145 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,11 +620,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,56 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,148 +720,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1209,7 +1209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="3:5">
+    <row r="8" ht="75" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1297,7 +1297,7 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C6" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="3:5">
+    <row r="8" ht="137" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1440,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1493,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="3:5">
+    <row r="8" ht="99" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +1582,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1635,7 +1635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="3:5">
+    <row r="8" ht="149" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
         <v>43</v>
       </c>

--- a/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Use-case number:</t>
   </si>
@@ -49,14 +49,14 @@
     <t>System response</t>
   </si>
   <si>
-    <t>"- Người dùng nhấn vào biểu tượng chuông thông báo.
-- Hệ thống phản hồi danh sách thông báo lấy từ CSDL."</t>
-  </si>
-  <si>
-    <t>"- Người dùng nhấn vào biểu tượng chuông thông báo trên góc phải phần mềm."</t>
-  </si>
-  <si>
-    <t>Phản hồi danh sách thông báo lấy từ CSDL.</t>
+    <t xml:space="preserve"> - Người dùng nhấn vào biểu tượng chuông thông báo.
+- Hệ thống phản hồi danh sách thông báo lấy từ CSDL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấn vào biểu tượng chuông thông báo trên góc phải phần mềm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống phản hồi danh sách thông báo lấy từ CSDL.</t>
   </si>
   <si>
     <t>Alternative paths:</t>
@@ -80,7 +80,7 @@
     <t>Triggers:</t>
   </si>
   <si>
-    <t>Nhấn vào biểu tượng chuông Thông Báo.</t>
+    <t>Người dùng nhấn vào biểu tượng chuông Thông Báo.</t>
   </si>
   <si>
     <t>Pre-condition:</t>
@@ -101,25 +101,25 @@
     <t>Người dùng lựa chọn thông báo muốn xóa trong danh sách các thông báo của bản thân.</t>
   </si>
   <si>
-    <t>"- Người dùng nhấn vào biểu tượng Xóa bên cạnh thông báo muốn xóa.
+    <t xml:space="preserve"> - Người dùng nhấn vào biểu tượng Xóa bên cạnh thông báo muốn xóa.
  - Hệ thống hiển thị thông báo xác nhận xóa.
 - Người dùng xác nhận hoặc từ chối xóa.
-- Hệ thống tự hành cập nhập CSDL."</t>
-  </si>
-  <si>
-    <t>"- Người dùng nhấn vào biểu tượng Xóa bên cạnh thông báo muốn xóa. 
-- Người dùng xác nhận hoặc từ chối xóa."</t>
-  </si>
-  <si>
-    <t>"- Hiển thị thông báo xác nhận xóa.
-- Cập nhập CSDL."</t>
-  </si>
-  <si>
-    <t>Xác nhận xóa thông báo.</t>
-  </si>
-  <si>
-    <t>"- Phải đang mở danh sách thông báo lên xem.
-- Tài khoản phải có ít nhất 1 thông báo."</t>
+- Hệ thống tự hành cập nhập CSDL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấn vào biểu tượng Xóa bên cạnh thông báo muốn xóa. 
+- Người dùng xác nhận hoặc từ chối xóa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống hiển thị thông báo xác nhận xóa.
+- Hệ thống tự hành cập nhập CSDL theo lựa chọn của người dùng.</t>
+  </si>
+  <si>
+    <t>Người dùng xác nhận xóa thông báo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Phải đang mở danh sách thông báo lên xem.
+- Tài khoản phải có ít nhất 1 thông báo.</t>
   </si>
   <si>
     <t>Danh sách thông báo mới không bao gồm cái vừa bị xóa.</t>
@@ -131,21 +131,17 @@
     <t>Người dùng đánh dấu đã xem cho một hoặc nhiều thông báo trong danh sách các thông báo của bản thân.</t>
   </si>
   <si>
-    <t>"- Người dùng nhấn trực tiếp vào thông báo muốn xác nhận đã xem.
-- Hệ thống xác nhận thông báo đã được xem vào CSDL."</t>
-  </si>
-  <si>
-    <t>Người dùng nhấn trực tiếp vào thông báo muốn xác nhận đã xem.</t>
-  </si>
-  <si>
-    <t>"- Xác nhận thông báo đã được xem vào CSDL."</t>
-  </si>
-  <si>
-    <t>Nhấn trực tiếp vào một thông báo nào đó.</t>
-  </si>
-  <si>
-    <t>" - Phải đang mở danh sách thông báo lên xem.
-- Tài khoản phải có ít nhất 1 thông báo."</t>
+    <t xml:space="preserve"> - Người dùng nhấn trực tiếp vào thông báo muốn xác nhận đã xem.
+- Hệ thống xác nhận thông báo đã được xem vào CSDL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấn trực tiếp vào thông báo muốn xác nhận đã xem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống xác nhận thông báo đã được xem vào CSDL.</t>
+  </si>
+  <si>
+    <t>Người dùng nhấn trực tiếp vào một thông báo nào đó.</t>
   </si>
   <si>
     <t>Thông báo sẽ thay đổi sang chế độ Đã Xem.</t>
@@ -157,21 +153,21 @@
     <t>Người dùng thay đổi các Cài Đặt liên quan đến thông báo.</t>
   </si>
   <si>
-    <t>"- Người dùng vào mục Cài Đặt. 
+    <t xml:space="preserve"> - Người dùng vào mục Cài Đặt. 
 - Hệ thống hiển thị danh sách Cài Đặt.
 - Người dùng vào phần Cài Đặt thông báo lựa chọn loại thông báo mình muốn.
-- Hệ thống lưu thay đổi vào CSDL và cập nhập lại hiển thị thông báo hiện hành."</t>
-  </si>
-  <si>
-    <t>"- Người dùng vào mục Cài Đặt. 
-- Tại phần Cài Đặt thông báo lựa chọn điều chỉnh theo mong muốn."</t>
-  </si>
-  <si>
-    <t>"- Hiển thị danh sách Cài Đặt.
-- Lưu thay đổi vào CSDL và cập nhập lại hiển thị thông báo hiện hành."</t>
-  </si>
-  <si>
-    <t>Lựa chọn các Cài Đặt Thông Báo mong muốn.</t>
+- Hệ thống lưu thay đổi vào CSDL và cập nhập lại hiển thị thông báo hiện hành.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng vào mục Cài Đặt. 
+- Tại phần Cài Đặt thông báo, người dùng lựa chọn điều chỉnh theo mong muốn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống hiển thị danh sách Cài Đặt.
+- Hệ thống lưu thay đổi vào CSDL và cập nhập lại hiển thị thông báo hiện hành.</t>
+  </si>
+  <si>
+    <t>Các Cài Đặt Thông Báo bị người dùng tác động sửa đổi.</t>
   </si>
   <si>
     <t>Thông báo sẽ hiển thị theo những gì vừa được thiết lập.</t>
@@ -227,9 +223,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,21 +284,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -271,72 +322,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,22 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,25 +381,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,157 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +616,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -631,26 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,9 +666,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +686,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,7 +716,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,130 +734,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1297,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1405,7 +1401,7 @@
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="3:5">
       <c r="C14" s="5" t="s">
@@ -1439,8 +1435,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1545,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -1554,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1581,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1602,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1620,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1637,13 +1633,13 @@
     </row>
     <row r="8" ht="149" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:5">
@@ -1678,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -1696,7 +1692,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3"/>
     </row>

--- a/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204"/>
+    <workbookView windowWidth="23040" windowHeight="9204" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="View Notification" sheetId="15" r:id="rId1"/>
@@ -17,9 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>Use-case number:</t>
+  </si>
+  <si>
+    <t>UC12</t>
   </si>
   <si>
     <t>Use-case name:</t>
@@ -216,16 +219,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,17 +261,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +285,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -269,48 +333,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,21 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,24 +363,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,13 +384,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,37 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +528,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,115 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +629,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -658,41 +676,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -713,151 +696,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,8 +1154,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1164,109 +1167,111 @@
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="3:5">
       <c r="C4" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="3:5">
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:5">
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:5">
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="75" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:5">
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:5">
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:5">
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="3:5">
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="3:5">
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="3:5">
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1293,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1306,109 +1311,111 @@
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="3:5">
       <c r="C4" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="3:5">
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:5">
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:5">
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="137" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:5">
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:5">
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:5">
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="3:5">
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="3:5">
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="3:5">
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1435,8 +1442,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1448,109 +1455,111 @@
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="3:5">
       <c r="C4" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="3:5">
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:5">
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:5">
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="99" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:5">
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:5">
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:5">
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="3:5">
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="3:5">
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="3:5">
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1577,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1590,109 +1599,111 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="3:5">
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="3:5">
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:5">
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:5">
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="149" customHeight="1" spans="3:5">
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:5">
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:5">
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:5">
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="3:5">
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="3:5">
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="3:5">
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3"/>
     </row>
